--- a/biology/Médecine/Liste_de_plantes_toxiques/Liste_de_plantes_toxiques.xlsx
+++ b/biology/Médecine/Liste_de_plantes_toxiques/Liste_de_plantes_toxiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de plantes toxiques n'est pas exhaustive. Elle recense un certain nombre de plantes dangereuses pour l'Homme ou les animaux domestiques (animaux de compagnie ou animaux de rente).
 La toxicité de ces plantes dépend de nombreux facteurs, intrinsèques comme le ou les organes végétaux incriminés, la variété ou le cultivar concerné (facteur génétique), le stade de croissance, ou extrinsèques, liés à la façon dont l'organisme animal ou humain est entré en contact avec la plante (ingestion, inhalation, contact), de son âge, de sa sensibilité propre et de son état général, de la dose à laquelle l'organisme a été exposé et de la dose ingérée ou absorbée, du mode de préparation culinaire ou médicinal (cuisson, lavage, séchage, etc.).
-Certaines de ces espèces sont aussi utilisées comme des plantes médicinales dans certaines conditions, notamment de dose[1].
-Bien que ces plantes soient souvent très dangereuses, le risque pour les êtres humains et les animaux est souvent limité en fonction de leur exposition réelle à ce danger. Ainsi, on note très peu d'intoxications mortelles par le colchique d'automne, car la population est généralement consciente de sa toxicité. Mais il existe des risques de confusion avec d'autres espèces[2], et les animaux, bien qu'ils refusent le plus souvent de brouter le colchique, peuvent être exposés en consommant du foin contaminé dont la toxicité a été sensiblement diminuée par la dessiccation.
-Un arrêté du 4 septembre 2020[3] donne la liste des espèces végétales susceptibles de porter atteinte à la santé humaine et qui doivent faire l'objet  d'une information préalable à délivrer aux acquéreurs de ces végétaux. Elles sont réparties en 4 catégories : les espèces pouvant être toxiques en cas d'ingestion ; les espèces pouvant entraîner une allergie respiratoire par le pollen ; les espèces pouvant entraîner des réactions cutanéomuqueuses ; les espèces pouvant entraîner une réaction cutanée anormale en cas de contact avec la peau et d'exposition au soleil.
+Certaines de ces espèces sont aussi utilisées comme des plantes médicinales dans certaines conditions, notamment de dose.
+Bien que ces plantes soient souvent très dangereuses, le risque pour les êtres humains et les animaux est souvent limité en fonction de leur exposition réelle à ce danger. Ainsi, on note très peu d'intoxications mortelles par le colchique d'automne, car la population est généralement consciente de sa toxicité. Mais il existe des risques de confusion avec d'autres espèces, et les animaux, bien qu'ils refusent le plus souvent de brouter le colchique, peuvent être exposés en consommant du foin contaminé dont la toxicité a été sensiblement diminuée par la dessiccation.
+Un arrêté du 4 septembre 2020 donne la liste des espèces végétales susceptibles de porter atteinte à la santé humaine et qui doivent faire l'objet  d'une information préalable à délivrer aux acquéreurs de ces végétaux. Elles sont réparties en 4 catégories : les espèces pouvant être toxiques en cas d'ingestion ; les espèces pouvant entraîner une allergie respiratoire par le pollen ; les espèces pouvant entraîner des réactions cutanéomuqueuses ; les espèces pouvant entraîner une réaction cutanée anormale en cas de contact avec la peau et d'exposition au soleil.
 </t>
         </is>
       </c>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
